--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INOW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EB9196-1812-4AC9-9EE8-B1417FDE12B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6739D709-0597-42D0-BDBB-1646F30E9418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="12" activeTab="16" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="12" activeTab="15" xr2:uid="{1D5F82B1-D089-4CF0-BE2B-D18622951DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="NewBussines" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7964" uniqueCount="1724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7970" uniqueCount="1733">
   <si>
     <t>NewBussines</t>
   </si>
@@ -5217,16 +5217,43 @@
     <t>Rewrite  NewPremium</t>
   </si>
   <si>
-    <t>PA0000013-01</t>
-  </si>
-  <si>
-    <t>636.00</t>
-  </si>
-  <si>
     <t>RenewalStartPremium</t>
   </si>
   <si>
-    <t>PA0000022-01</t>
+    <t>25000/50000</t>
+  </si>
+  <si>
+    <t>$50,000/$100,000</t>
+  </si>
+  <si>
+    <t>$100,000/$300,000</t>
+  </si>
+  <si>
+    <t>Jhon</t>
+  </si>
+  <si>
+    <t>newBusinessUninsuredMotoristBodilyInjury</t>
+  </si>
+  <si>
+    <t>newBusinessUnderinsuredMotoristBodilyInjury</t>
+  </si>
+  <si>
+    <t>3rd premium</t>
+  </si>
+  <si>
+    <t>PA0000030-01</t>
+  </si>
+  <si>
+    <t>482.00</t>
+  </si>
+  <si>
+    <t>PA0000031-01</t>
+  </si>
+  <si>
+    <t>552.00</t>
+  </si>
+  <si>
+    <t>779.00</t>
   </si>
 </sst>
 </file>
@@ -10320,8 +10347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA4E5AA-688C-484A-99F1-9AC8F41EC26C}">
   <dimension ref="A1:D1144"/>
   <sheetViews>
-    <sheetView topLeftCell="A1127" workbookViewId="0">
-      <selection activeCell="C1145" sqref="C1145"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="D377" sqref="D377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10518,7 +10545,7 @@
         <v>415</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1539</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -10878,7 +10905,7 @@
         <v>442</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>1670</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10923,10 +10950,10 @@
         <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>1551</v>
+        <v>1725</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -10935,7 +10962,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>447</v>
+        <v>1726</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>1551</v>
@@ -10961,7 +10988,9 @@
       <c r="C57" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
@@ -10971,7 +11000,9 @@
       <c r="C58" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="29"/>
@@ -10981,7 +11012,9 @@
       <c r="C59" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
@@ -21926,15 +21959,27 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0237AD62-BE23-4BEB-8BE4-5003C568B132}">
+          <x14:formula1>
+            <xm:f>TS_05!$D$15:$D$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>D50</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690BDCB3-D8BD-4E30-A552-CC4C26E2CADF}">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="B7:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21942,9 +21987,10 @@
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1716</v>
       </c>
@@ -21954,69 +22000,71 @@
       <c r="D2" s="1" t="s">
         <v>1718</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1706</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1720</v>
+      <c r="C3" t="s">
+        <v>1728</v>
       </c>
       <c r="D3" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>1730</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1714</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1709</v>
+      <c r="C4" t="s">
+        <v>1729</v>
       </c>
       <c r="D4" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>1731</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1713</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1712</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+        <v>1732</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>1721</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29562,10 +29610,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C769D613-2896-45AA-B7E3-BA8DD5AD2AD8}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:D7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29660,7 +29708,9 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>1721</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -29680,10 +29730,35 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>1723</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8" xr:uid="{1A50A680-95C4-4F26-8FED-38BE3C749C07}">
+      <formula1>$D$15:$D$18</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INOW_Automation\"/>
     </mc:Choice>
@@ -37,7 +37,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9586" uniqueCount="2001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9590" uniqueCount="2003">
   <si>
     <t>NewBussines</t>
   </si>
@@ -6059,6 +6059,12 @@
   </si>
   <si>
     <t>RewriteNew Premium</t>
+  </si>
+  <si>
+    <t>PA0000069-01</t>
+  </si>
+  <si>
+    <t>PA0000070-01</t>
   </si>
 </sst>
 </file>
@@ -6799,10 +6805,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.42578125"/>
+    <col min="2" max="2" customWidth="true" width="36.42578125"/>
+    <col min="3" max="3" customWidth="true" width="65.85546875"/>
+    <col min="4" max="4" customWidth="true" width="30.5703125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10667,10 +10673,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125"/>
+    <col min="2" max="2" customWidth="true" width="27.28515625"/>
+    <col min="3" max="3" customWidth="true" width="37.140625"/>
+    <col min="4" max="4" customWidth="true" width="24.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -10764,10 +10770,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.7109375"/>
+    <col min="2" max="2" customWidth="true" width="29.140625"/>
+    <col min="3" max="3" customWidth="true" width="38.85546875"/>
+    <col min="4" max="4" customWidth="true" width="15.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -10871,8 +10877,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="26.5703125"/>
+    <col min="3" max="3" customWidth="true" width="36.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -10935,8 +10941,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.42578125"/>
+    <col min="2" max="2" customWidth="true" width="47.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -10985,10 +10991,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="33.140625"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625"/>
+    <col min="3" max="3" customWidth="true" width="56.0"/>
+    <col min="4" max="4" customWidth="true" width="17.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11161,10 +11167,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="39.85546875"/>
+    <col min="2" max="2" customWidth="true" width="24.0"/>
+    <col min="3" max="3" customWidth="true" width="41.5703125"/>
+    <col min="4" max="4" customWidth="true" width="24.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11327,11 +11333,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="64.5703125"/>
+    <col min="4" max="4" customWidth="true" width="27.7109375"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -23067,11 +23073,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="27.7109375"/>
+    <col min="3" max="3" customWidth="true" width="15.85546875"/>
+    <col min="4" max="4" customWidth="true" width="21.28515625"/>
+    <col min="5" max="5" customWidth="true" width="15.0"/>
+    <col min="6" max="6" customWidth="true" width="16.0"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -23092,33 +23098,33 @@
       <c r="B3" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>1734</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>1738</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>1741</v>
       </c>
-      <c r="F3" t="s">
-        <v>1745</v>
+      <c r="F3" t="s" s="0">
+        <v>2002</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>1735</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>1735</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>1735</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>1735</v>
       </c>
     </row>
@@ -23126,16 +23132,16 @@
       <c r="B5" s="1" t="s">
         <v>1690</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>1736</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>1739</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>1736</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>1742</v>
       </c>
     </row>
@@ -23143,16 +23149,16 @@
       <c r="B6" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>1737</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>1740</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>1737</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>1743</v>
       </c>
     </row>
@@ -23160,16 +23166,16 @@
       <c r="B7" s="1" t="s">
         <v>1697</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>1737</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>1740</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>1737</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>1743</v>
       </c>
     </row>
@@ -23200,10 +23206,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.28515625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="64.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:7" x14ac:dyDescent="0.25">
@@ -38390,8 +38396,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.0"/>
+    <col min="4" max="8" bestFit="true" customWidth="true" width="8.28515625"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
@@ -38497,10 +38503,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.42578125"/>
+    <col min="2" max="2" customWidth="true" width="36.42578125"/>
+    <col min="3" max="3" customWidth="true" width="65.85546875"/>
+    <col min="4" max="4" customWidth="true" width="30.5703125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -42323,10 +42329,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.140625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375"/>
+    <col min="4" max="4" customWidth="true" width="20.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -42436,12 +42442,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>1570</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>1647</v>
       </c>
     </row>
@@ -42449,12 +42455,12 @@
       <c r="C17" s="27" t="s">
         <v>1706</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>1699</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>1700</v>
       </c>
     </row>
@@ -42515,38 +42521,38 @@
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H33" t="s">
+      <c r="H33" t="s" s="0">
         <v>1728</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="H34" t="s">
+      <c r="H34" t="s" s="0">
         <v>1729</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="C35" t="s" s="0">
         <v>1720</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" t="s" s="0">
         <v>1709</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+      <c r="D36" t="s" s="0">
         <v>1721</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+      <c r="C39" t="s" s="0">
         <v>1722</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" t="s" s="0">
         <v>1723</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+      <c r="D40" t="s" s="0">
         <v>1724</v>
       </c>
     </row>
@@ -42574,10 +42580,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="64.5703125"/>
+    <col min="4" max="4" customWidth="true" width="33.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -46900,10 +46906,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.42578125"/>
+    <col min="2" max="2" customWidth="true" width="36.42578125"/>
+    <col min="3" max="3" customWidth="true" width="65.85546875"/>
+    <col min="4" max="4" customWidth="true" width="30.5703125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -50726,10 +50732,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.5703125"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125"/>
+    <col min="3" max="3" customWidth="true" width="46.140625"/>
+    <col min="4" max="4" customWidth="true" width="36.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -50851,10 +50857,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.85546875"/>
+    <col min="2" max="2" customWidth="true" width="31.42578125"/>
+    <col min="3" max="3" customWidth="true" width="48.0"/>
+    <col min="4" max="4" customWidth="true" width="23.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -50992,10 +50998,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0"/>
+    <col min="2" max="2" customWidth="true" width="49.0"/>
+    <col min="3" max="3" customWidth="true" width="40.28515625"/>
+    <col min="4" max="4" customWidth="true" width="25.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -51137,10 +51143,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.42578125"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375"/>
+    <col min="3" max="3" customWidth="true" width="40.5703125"/>
+    <col min="4" max="4" customWidth="true" width="33.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -51236,10 +51242,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="33.5703125"/>
+    <col min="2" max="2" customWidth="true" width="29.42578125"/>
+    <col min="3" max="3" customWidth="true" width="38.42578125"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -51347,10 +51353,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.42578125"/>
+    <col min="2" max="2" customWidth="true" width="36.42578125"/>
+    <col min="3" max="3" customWidth="true" width="65.85546875"/>
+    <col min="4" max="4" customWidth="true" width="30.5703125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/INOW Automation Data Sheet.xlsx
+++ b/INOW Automation Data Sheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\INOW\"/>
     </mc:Choice>
@@ -36,7 +36,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7971" uniqueCount="1732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7975" uniqueCount="1736">
   <si>
     <t>NewBussines</t>
   </si>
@@ -5251,6 +5251,18 @@
   </si>
   <si>
     <t>Underinsured Motorist Bodily Injury*</t>
+  </si>
+  <si>
+    <t>PA0000070-01</t>
+  </si>
+  <si>
+    <t>552.00</t>
+  </si>
+  <si>
+    <t>779.00</t>
+  </si>
+  <si>
+    <t>816.00</t>
   </si>
 </sst>
 </file>
@@ -5839,10 +5851,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.42578125"/>
+    <col min="2" max="2" customWidth="true" width="36.42578125"/>
+    <col min="3" max="3" customWidth="true" width="65.85546875"/>
+    <col min="4" max="4" customWidth="true" width="30.5703125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9707,10 +9719,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.42578125"/>
+    <col min="2" max="2" customWidth="true" width="27.28515625"/>
+    <col min="3" max="3" customWidth="true" width="37.140625"/>
+    <col min="4" max="4" customWidth="true" width="24.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -9804,10 +9816,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.7109375"/>
+    <col min="2" max="2" customWidth="true" width="29.140625"/>
+    <col min="3" max="3" customWidth="true" width="38.85546875"/>
+    <col min="4" max="4" customWidth="true" width="15.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -9911,8 +9923,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="26.5703125"/>
+    <col min="3" max="3" customWidth="true" width="36.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -9975,8 +9987,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.42578125"/>
+    <col min="2" max="2" customWidth="true" width="47.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -10025,10 +10037,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="33.140625"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625"/>
+    <col min="3" max="3" customWidth="true" width="56.0"/>
+    <col min="4" max="4" customWidth="true" width="17.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -10201,10 +10213,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="39.85546875"/>
+    <col min="2" max="2" customWidth="true" width="24.0"/>
+    <col min="3" max="3" customWidth="true" width="41.5703125"/>
+    <col min="4" max="4" customWidth="true" width="24.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -10367,11 +10379,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="64.5703125"/>
+    <col min="4" max="4" customWidth="true" width="27.7109375"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -21998,10 +22010,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="27.7109375"/>
+    <col min="3" max="3" customWidth="true" width="15.85546875"/>
+    <col min="4" max="4" customWidth="true" width="21.28515625"/>
+    <col min="5" max="5" customWidth="true" width="15.0"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -22023,7 +22035,9 @@
         <v>1706</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" t="s" s="0">
+        <v>1732</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -22031,7 +22045,9 @@
         <v>1714</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" t="s" s="0">
+        <v>1733</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -22039,7 +22055,9 @@
         <v>1713</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" t="s" s="0">
+        <v>1734</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -22047,7 +22065,9 @@
         <v>1711</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" t="s" s="0">
+        <v>1735</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -22085,10 +22105,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.85546875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.28515625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="64.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:7" x14ac:dyDescent="0.25">
@@ -29622,10 +29642,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.140625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="37.7109375"/>
+    <col min="4" max="4" customWidth="true" width="20.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -29735,12 +29755,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>1570</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>1670</v>
       </c>
     </row>
@@ -29748,12 +29768,12 @@
       <c r="C17" s="27" t="s">
         <v>1729</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>1722</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>1723</v>
       </c>
     </row>
@@ -29825,10 +29845,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.42578125"/>
+    <col min="2" max="2" customWidth="true" width="36.42578125"/>
+    <col min="3" max="3" customWidth="true" width="65.85546875"/>
+    <col min="4" max="4" customWidth="true" width="30.5703125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -33651,10 +33671,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="64.5703125"/>
+    <col min="4" max="4" customWidth="true" width="33.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -37977,10 +37997,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.42578125"/>
+    <col min="2" max="2" customWidth="true" width="36.42578125"/>
+    <col min="3" max="3" customWidth="true" width="65.85546875"/>
+    <col min="4" max="4" customWidth="true" width="30.5703125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -41803,10 +41823,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.5703125"/>
+    <col min="2" max="2" customWidth="true" width="21.42578125"/>
+    <col min="3" max="3" customWidth="true" width="46.140625"/>
+    <col min="4" max="4" customWidth="true" width="36.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -41928,10 +41948,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.85546875"/>
+    <col min="2" max="2" customWidth="true" width="31.42578125"/>
+    <col min="3" max="3" customWidth="true" width="48.0"/>
+    <col min="4" max="4" customWidth="true" width="23.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -42069,10 +42089,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0"/>
+    <col min="2" max="2" customWidth="true" width="49.0"/>
+    <col min="3" max="3" customWidth="true" width="40.28515625"/>
+    <col min="4" max="4" customWidth="true" width="25.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -42214,10 +42234,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.42578125"/>
+    <col min="2" max="2" customWidth="true" width="33.7109375"/>
+    <col min="3" max="3" customWidth="true" width="40.5703125"/>
+    <col min="4" max="4" customWidth="true" width="33.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -42313,10 +42333,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="33.5703125"/>
+    <col min="2" max="2" customWidth="true" width="29.42578125"/>
+    <col min="3" max="3" customWidth="true" width="38.42578125"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -42424,10 +42444,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="24.42578125"/>
+    <col min="2" max="2" customWidth="true" width="36.42578125"/>
+    <col min="3" max="3" customWidth="true" width="65.85546875"/>
+    <col min="4" max="4" customWidth="true" width="30.5703125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
